--- a/twitter_data/retweet_analysis/more_rt_fav_analysis.xlsx
+++ b/twitter_data/retweet_analysis/more_rt_fav_analysis.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="6120" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="2440" windowWidth="25080" windowHeight="14980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -58,6 +62,30 @@
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t># of Users</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>service_providers</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>interest_groups</t>
+  </si>
+  <si>
+    <t>commercial_growers</t>
+  </si>
+  <si>
+    <t>non-profits</t>
   </si>
 </sst>
 </file>
@@ -387,11 +415,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116546952"/>
-        <c:axId val="-2116550040"/>
+        <c:axId val="2085021896"/>
+        <c:axId val="2085024872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116546952"/>
+        <c:axId val="2085021896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116550040"/>
+        <c:crossAx val="2085024872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116550040"/>
+        <c:axId val="2085024872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116546952"/>
+        <c:crossAx val="2085021896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,11 +649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116587944"/>
-        <c:axId val="-2116595352"/>
+        <c:axId val="2085053816"/>
+        <c:axId val="2085056792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116587944"/>
+        <c:axId val="2085053816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116595352"/>
+        <c:crossAx val="2085056792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116595352"/>
+        <c:axId val="2085056792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,10 +681,118 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116587944"/>
+        <c:crossAx val="2085053816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>individuals</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>shops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>service_providers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>news</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>interest_groups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5027.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -738,6 +874,101 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>individuals</v>
+          </cell>
+          <cell r="B2">
+            <v>5027</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>shops</v>
+          </cell>
+          <cell r="B3">
+            <v>204</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>service_providers</v>
+          </cell>
+          <cell r="B4">
+            <v>123</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>news</v>
+          </cell>
+          <cell r="B5">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>interest_groups</v>
+          </cell>
+          <cell r="B6">
+            <v>176</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -1243,4 +1474,89 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/twitter_data/retweet_analysis/more_rt_fav_analysis.xlsx
+++ b/twitter_data/retweet_analysis/more_rt_fav_analysis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elan/Github/REU_scripts/twitter_data/retweet_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2440" windowWidth="25080" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9680" yWindow="4060" windowWidth="19120" windowHeight="10340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,6 +162,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,20 +425,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085021896"/>
-        <c:axId val="2085024872"/>
+        <c:axId val="2091239776"/>
+        <c:axId val="-2096345904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085021896"/>
+        <c:axId val="2091239776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085024872"/>
+        <c:crossAx val="-2096345904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -436,7 +447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085024872"/>
+        <c:axId val="-2096345904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085021896"/>
+        <c:crossAx val="2091239776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,20 +660,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085053816"/>
-        <c:axId val="2085056792"/>
+        <c:axId val="-2065350256"/>
+        <c:axId val="-2065347296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085053816"/>
+        <c:axId val="-2065350256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085056792"/>
+        <c:crossAx val="-2065347296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085056792"/>
+        <c:axId val="-2065347296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085053816"/>
+        <c:crossAx val="-2065350256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -717,6 +729,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>User Distribution for M-dab Tweets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -725,7 +756,133 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>User Distribution for Mdab Tweets</c:v>
+          </c:tx>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.121284851186055"/>
+                  <c:y val="0.0373334554110969"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00613987520427887"/>
+                  <c:y val="-0.0355253616553743"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.132044025157233"/>
+                      <c:h val="0.162674601721296"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.045056331401971"/>
+                  <c:y val="-0.0798194469877312"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.31319850938444"/>
+                  <c:y val="-0.0278546053836294"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -733,6 +890,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -798,11 +960,24 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -880,20 +1055,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -914,7 +1089,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1299,12 +1474,12 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1519,7 @@
         <v>8529</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1539,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1579,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1619,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1468,11 +1643,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1481,12 +1651,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1672,7 @@
         <v>5027</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1680,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1688,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1534,7 +1704,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1553,10 +1723,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>